--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-108-R01A 制袋岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-108-R01A 制袋岗位交接班记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <r>
       <t>Y</t>
@@ -153,10 +153,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班异常情况处理：</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白班</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,7 +169,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>白班</t>
+      <t>夜班</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,7 +182,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>夜班</t>
+      <t>确认现场环境卫生是否清洁、消毒。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,7 +195,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认现场环境卫生是否清洁、消毒。</t>
+      <t>确认原料膜卷使用及质量情况。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,7 +208,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认原料膜卷使用及质量情况。</t>
+      <t>确认生产设备运行是否正常。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,7 +221,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认生产设备运行是否正常。</t>
+      <t>确认工艺参数是否符合工艺要求。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,7 +234,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认工艺参数是否符合工艺要求。</t>
+      <t>确认记录填写准确、真实和及时。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,7 +247,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认记录填写准确、真实和及时。</t>
+      <t>确认产品质量是否符合工艺要求。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,8 +260,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认产品质量是否符合工艺要求。</t>
-    </r>
+      <t>确认交接本班生产数量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认工器具齐全，满足生产使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,23 +277,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认交接本班生产数量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认工器具齐全，满足生产使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>确认本班发生的异常情况，并得到有效处理。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,58 +290,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夜班异常情况处理：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间：</t>
-    </r>
+    <t>白班异常情况处理：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,6 +870,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,32 +933,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,7 +1246,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1326,72 +1262,72 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
@@ -1407,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
@@ -1423,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="1" t="s">
@@ -1432,16 +1368,14 @@
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
@@ -1450,16 +1384,14 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="1" t="s">
@@ -1475,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="1" t="s">
@@ -1491,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="1" t="s">
@@ -1506,8 +1438,8 @@
       <c r="A13" s="21">
         <v>8</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>18</v>
+      <c r="B13" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="1" t="s">
@@ -1522,32 +1454,30 @@
       <c r="A14" s="15">
         <v>9</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="45"/>
+      <c r="B14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="4"/>
       <c r="E15" s="23"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="7.15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
@@ -1556,11 +1486,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>
@@ -1574,6 +1499,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
